--- a/汇率记录.xlsx
+++ b/汇率记录.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="美元汇率" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="英镑汇率" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,6 +799,1702 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:28:57</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:29:04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:29:12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:29:19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:33:53</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:34:01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:34:08</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:34:46</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:34:53</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:08</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:15</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:22</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:35:37</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:37:15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:37:23</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:41:24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:41:32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>715.29</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>715.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>718.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:52:58</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-03 10:53:05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:09</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:17</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:24</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:32</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:00:39</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:02:37</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:04:53</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:05:01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:05:08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:05:15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:06:29</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:09:14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:09:22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:09:33</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:09:50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:09:59</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:17</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:36</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:45</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:53</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:18</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:38</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:46</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:11:54</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:12:11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:12:21</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:12:31</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:12:40</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:12:57</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:13:22</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:13:30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:13:40</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:13:48</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:13:56</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:14:05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:14:13</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>美元</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>715.24</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>715.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>718.25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>币种</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>现汇买入价</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>现钞买入价</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>卖出价</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:24:06</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>英镑</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>973.66</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>973.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>980.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:24:14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>英镑</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>973.66</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>973.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>980.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:24:23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>英镑</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>973.66</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>973.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>980.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:24:31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>英镑</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>973.66</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>973.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>980.89</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
